--- a/release-branch/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/release-branch/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
